--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AB36CC-C525-F74F-A216-B1FA31F42BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5494A97B-20BE-294E-8285-8276C74067F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneGroup" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -223,6 +223,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -251,6 +252,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -280,6 +282,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -299,6 +302,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -324,6 +328,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -343,6 +348,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -380,6 +386,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -399,6 +406,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -423,6 +431,10 @@
   </si>
   <si>
     <t>400,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;key</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -831,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>5</v>
@@ -941,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5494A97B-20BE-294E-8285-8276C74067F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D699B4-4EA6-D243-8079-594ED7532323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneGroup" sheetId="1" r:id="rId1"/>
@@ -824,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D699B4-4EA6-D243-8079-594ED7532323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A7A92-419B-434A-A68C-D61D462326B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -604,6 +604,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -954,7 +955,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1069,6 +1070,9 @@
       <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="F5" s="19">
+        <v>200100</v>
+      </c>
       <c r="G5" s="15" t="s">
         <v>36</v>
       </c>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6A7A92-419B-434A-A68C-D61D462326B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8AEAE-2BCE-2D42-B198-33D32716E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -435,6 +435,10 @@
   </si>
   <si>
     <t>int;key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 100</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +608,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -955,7 +959,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1070,8 +1074,8 @@
       <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="19">
-        <v>200100</v>
+      <c r="F5" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>36</v>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8AEAE-2BCE-2D42-B198-33D32716E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFD681-2107-3B46-BFC9-D8EFB913D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -439,6 +435,22 @@
   </si>
   <si>
     <t>200, 100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-430,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>430,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowDialogFlipped</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -609,6 +621,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -848,7 +863,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>5</v>
@@ -956,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -970,6 +985,7 @@
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1">
@@ -994,7 +1010,7 @@
       <c r="G1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1009,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>20</v>
@@ -1020,7 +1036,7 @@
       <c r="G2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1043,49 +1059,76 @@
       <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>31</v>
+      <c r="G3" s="15"/>
+      <c r="H3" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
+      <c r="B5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="B6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="B5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="15"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFD681-2107-3B46-BFC9-D8EFB913D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F9E97-EDB2-D646-B719-B33BD409C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -451,6 +451,14 @@
   </si>
   <si>
     <t>ShowDialogFlipped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideFullIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideSpotIllustration</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -971,10 +979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1108,6 +1116,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
@@ -1115,20 +1126,49 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H7" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="15"/>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F9E97-EDB2-D646-B719-B33BD409C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7BEAF-C796-2347-BF2E-D0AC918CDD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneGroup" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,34 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>여긴 로컬 스트링으로 바꾸자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutsceneId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;CutsceneCommand&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutsceneMessage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;string&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -83,6 +111,62 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐릭터아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Malgun Gothic"/>
         <family val="2"/>
         <charset val="129"/>
@@ -95,6 +179,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>_</t>
     </r>
@@ -106,6 +191,263 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowDialog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신그룹아이디1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신그룹아이디2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutsceneCommand</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowFullIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowSpotIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_bg_myhome_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-430,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>430,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowDialogFlipped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideFullIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideSpotIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
       <t>컷신그룹아이디</t>
     </r>
     <r>
@@ -116,349 +458,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>여긴 로컬 스트링으로 바꾸자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CutsceneId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;CutsceneCommand&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CutsceneMessage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;string&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>캐릭터아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntValues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringValues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowDialog</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신그룹아이디1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신그룹아이디2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CutsceneCommand</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowFullIllustration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowSpotIllustration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp_bg_myhome_a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int;key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>200, 100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-430,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>flipped</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>430,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowDialogFlipped</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideFullIllustration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideSpotIllustration</t>
+      <t>1]</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -852,8 +853,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -871,7 +872,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>5</v>
@@ -892,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -923,10 +924,10 @@
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -941,7 +942,7 @@
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>22</v>
@@ -981,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1007,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>5</v>
@@ -1016,10 +1017,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1">
@@ -1027,144 +1028,144 @@
         <v>13</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7BEAF-C796-2347-BF2E-D0AC918CDD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF98E5B-9FD4-4C42-B3EA-C834A14043BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF98E5B-9FD4-4C42-B3EA-C834A14043BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1067B-AB81-E44B-9614-C5B299B5E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2460" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7000" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneGroup" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -853,7 +853,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1165,6 +1165,56 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>43</v>
       </c>
     </row>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1067B-AB81-E44B-9614-C5B299B5E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C1B85-F7BC-8641-BA7F-7F4FF86B1455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneGroup" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>enum&lt;RequirementType&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>여긴 로컬 스트링으로 바꾸자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -460,6 +452,40 @@
       </rPr>
       <t>1]</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신이름1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[CutsceneGroupId]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[CutsceneId][Order]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -546,6 +572,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -607,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -633,6 +672,7 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -860,7 +900,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="5" customWidth="1"/>
@@ -872,16 +912,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -893,24 +933,24 @@
         <v>1</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>2</v>
@@ -919,15 +959,15 @@
         <v>3</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -942,10 +982,10 @@
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -983,7 +1023,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -993,7 +1033,7 @@
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -1008,214 +1048,214 @@
         <v>4</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1">
       <c r="A2" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15">
       <c r="A9" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="A10" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C1B85-F7BC-8641-BA7F-7F4FF86B1455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953F456-8084-E44E-9380-A77BADF92C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,12 +1023,12 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5953F456-8084-E44E-9380-A77BADF92C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936DDDF-3B23-A74A-B4C5-1A0261E44ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneGroup" sheetId="1" r:id="rId1"/>
     <sheet name="Cutscene" sheetId="2" r:id="rId2"/>
+    <sheet name="CutsceneSelection" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -486,6 +487,353 @@
   </si>
   <si>
     <t>local_string;[CutsceneId][Order]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowRequirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowRequirementValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideRequirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideRequirementValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysTrue</t>
+  </si>
+  <si>
+    <t>AlwaysFalse</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_cutscene_selection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[SelectionId]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionTitle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -586,8 +934,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +987,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -642,11 +1017,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -673,6 +1072,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -893,7 +1300,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1020,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1032,8 +1439,8 @@
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
@@ -1141,20 +1548,25 @@
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>32</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="15" t="s">
@@ -1164,12 +1576,14 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="15" t="s">
@@ -1179,20 +1593,12 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>33</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="15">
       <c r="A8" s="15" t="s">
@@ -1202,20 +1608,19 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15">
@@ -1226,22 +1631,20 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15">
@@ -1252,14 +1655,134 @@
         <v>28</v>
       </c>
       <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="15"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9364E0A7-4AF5-314C-BBE8-2E17390A4AA9}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936DDDF-3B23-A74A-B4C5-1A0261E44ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E05BAD7-6FBC-BD4F-AB3C-C440DD9C6878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CutsceneGroup" sheetId="1" r:id="rId1"/>
+    <sheet name="CutsceneInfo" sheetId="1" r:id="rId1"/>
     <sheet name="Cutscene" sheetId="2" r:id="rId2"/>
     <sheet name="CutsceneSelection" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CutsceneGroupName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CutsceneGroupId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -212,6 +204,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>vector2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -243,7 +243,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>컷신그룹아이디1</t>
+      <t>컷신2</t>
     </r>
     <r>
       <rPr>
@@ -258,6 +258,100 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>CutsceneCommand</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowFullIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowSpotIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp_bg_myhome_a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200, 100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-430,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flipped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>430,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowDialogFlipped</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideFullIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideSpotIllustration</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>컷신이름1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[CutsceneGroupId]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[CutsceneId][Order]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -289,7 +383,36 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>컷신그룹아이디2</t>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -304,14 +427,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>vector2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -320,7 +435,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Malgun Gothic"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>테스트용</t>
@@ -340,10 +455,30 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신2</t>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지2</t>
     </r>
     <r>
       <rPr>
@@ -358,56 +493,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CutsceneCommand</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowFullIllustration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowSpotIllustration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp_bg_myhome_a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int;key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>200, 100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-430,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>flipped</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>430,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowDialogFlipped</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideFullIllustration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideSpotIllustration</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>ShowRequirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowRequirementValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideRequirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideRequirementValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysTrue</t>
+  </si>
+  <si>
+    <t>AlwaysFalse</t>
   </si>
   <si>
     <r>
@@ -441,39 +546,149 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>컷신그룹아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>컷신이름1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_cutscene_selection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[SelectionId]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionTitle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -482,358 +697,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>local_string;[CutsceneGroupId]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_string;[CutsceneId][Order]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectionId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowRequirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowRequirementValues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideRequirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideRequirementValues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlwaysTrue</t>
-  </si>
-  <si>
-    <t>AlwaysFalse</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_cutscene_selection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_string;[SelectionId]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectionTitle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>SelectionCutsceneId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutsceneName</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1045,10 +913,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1300,122 +1167,122 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="28" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="5"/>
-    <col min="7" max="7" width="18.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="12.5" style="5"/>
+    <col min="1" max="1" width="26.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4"/>
+    <col min="7" max="7" width="18.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="13">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="13"/>
@@ -1427,268 +1294,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="16" customFormat="1">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="17" customFormat="1">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="A11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1698,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9364E0A7-4AF5-314C-BBE8-2E17390A4AA9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1712,76 +1542,89 @@
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="F1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="E2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="15" t="s">
+      <c r="G3" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>62</v>
+      <c r="C4" s="26"/>
+      <c r="D4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E05BAD7-6FBC-BD4F-AB3C-C440DD9C6878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB7A3C-C1A7-7146-A0E4-17BC545978DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneInfo" sheetId="1" r:id="rId1"/>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>local_string;[CutsceneGroupId]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>local_string;[CutsceneId][Order]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -702,6 +698,10 @@
   </si>
   <si>
     <t>CutsceneName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[CutsceneId]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1167,8 +1167,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
@@ -1215,7 +1215,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>6</v>
@@ -1408,14 +1408,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -1530,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9364E0A7-4AF5-314C-BBE8-2E17390A4AA9}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>4</v>
@@ -1570,40 +1570,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>20</v>
@@ -1611,17 +1611,17 @@
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>24</v>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB7A3C-C1A7-7146-A0E4-17BC545978DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2D306-90DD-C94A-8233-B7F28CC29ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneInfo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -702,6 +702,52 @@
   </si>
   <si>
     <t>local_string;[CutsceneId]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1213,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1296,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1391,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>33</v>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2D306-90DD-C94A-8233-B7F28CC29ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32468A1F-E88C-2740-A84C-3E5BE1E23BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sp_bg_myhome_a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>400,0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -748,6 +744,10 @@
       </rPr>
       <t>]</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>myhome_background</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1232,10 +1232,10 @@
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
@@ -1261,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
@@ -1287,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1367,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>6</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
@@ -1434,16 +1434,16 @@
         <v>21</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
@@ -1454,14 +1454,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -1476,7 +1476,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -1487,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1502,13 +1502,13 @@
         <v>27</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
@@ -1543,16 +1543,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -1563,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1593,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>5</v>
@@ -1608,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>4</v>
@@ -1616,40 +1616,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>48</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>20</v>
@@ -1657,17 +1657,17 @@
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>24</v>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32468A1F-E88C-2740-A84C-3E5BE1E23BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5B854-F995-604F-B801-CEE6A85D064D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,7 +747,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>myhome_background</t>
+    <t>shopping_square_background</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5B854-F995-604F-B801-CEE6A85D064D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A6178-69DF-F342-A3C2-7BB6BF37979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3280" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="680" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneInfo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -306,24 +306,355 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>컷신이름1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+    <t>local_string;[CutsceneId][Order]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowRequirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowRequirementValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideRequirement</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HideRequirementValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysTrue</t>
+  </si>
+  <si>
+    <t>AlwaysFalse</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_cutscene_selection</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[SelectionId]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionTitle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -332,15 +663,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>local_string;[CutsceneId][Order]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectionId</t>
+    <t>SelectionCutsceneId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutsceneName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[CutsceneId]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -375,36 +706,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
+      <t>캐릭터아이디</t>
     </r>
     <r>
       <rPr>
@@ -419,6 +721,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>shopping_square_background</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[</t>
     </r>
@@ -427,10 +733,35 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>테스트용</t>
+      <t>마이홈</t>
     </r>
     <r>
       <rPr>
@@ -450,17 +781,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
+      <t>슬라임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -470,7 +801,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>선택지2</t>
+      <t>말걸기</t>
     </r>
     <r>
       <rPr>
@@ -485,28 +816,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ShowRequirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowRequirementValues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideRequirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideRequirementValues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlwaysTrue</t>
-  </si>
-  <si>
-    <t>AlwaysFalse</t>
-  </si>
-  <si>
     <r>
       <t>[</t>
     </r>
@@ -514,18 +823,18 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마이홈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -534,58 +843,18 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1],[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>슬라임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -594,110 +863,62 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>컷신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>말걸기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_cutscene_selection</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_string;[SelectionId]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectionTitle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectionCutsceneId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CutsceneName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_string;[CutsceneId]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뭐지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -712,42 +933,24 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>테스트용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+      <t>슬라임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_square_background</t>
+  </si>
+  <si>
+    <t>보글보글</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -844,12 +1047,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
       <family val="3"/>
@@ -868,6 +1065,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -959,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,9 +1195,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1214,7 +1420,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1235,7 +1441,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
@@ -1261,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
@@ -1284,11 +1490,9 @@
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,22 +1504,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:8" ht="13">
+      <c r="A4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="13">
       <c r="A5" s="3"/>
@@ -1340,15 +1532,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
@@ -1367,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>6</v>
@@ -1437,7 +1629,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>32</v>
@@ -1454,14 +1646,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -1476,7 +1668,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
@@ -1505,7 +1697,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
@@ -1564,6 +1756,69 @@
       </c>
       <c r="C11" s="14" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1863,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>4</v>
@@ -1616,40 +1871,40 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>20</v>
@@ -1657,17 +1912,17 @@
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>24</v>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A6178-69DF-F342-A3C2-7BB6BF37979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC90BD16-1FB2-EF4F-B59A-685D611019CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="680" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -835,6 +835,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -855,6 +856,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -875,6 +877,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -1535,7 +1538,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1773,6 +1776,9 @@
       </c>
       <c r="E12" s="14" t="s">
         <v>59</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>31</v>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC90BD16-1FB2-EF4F-B59A-685D611019CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C7C29-103C-6F4F-9C4B-47A85885FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="680" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
+    <t>...</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김희원\lunaria-data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C7C29-103C-6F4F-9C4B-47A85885FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="680" windowWidth="24420" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="684" windowWidth="24420" windowHeight="13896" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneInfo" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -954,13 +953,715 @@
   </si>
   <si>
     <t>...</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_square_background</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컷신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlwaysFalse</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>ShowDialog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑똑, 똑똑!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>편지 왔어요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐릭터아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 받으시는 분 성함을 확인할께요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>새턴…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>],[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>테스트용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>새턴 위치우드씨..? 
+제가 맞게 찾아왔길 바랍니다..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞다면 여기, 등기로 온 문서가 있으니 서명해주시겠어요?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤…아! 마법소녀 통신 스쿨의 수료증!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아! 세번째 시도만에 합격이야!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="10"/>
@@ -1018,6 +1719,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -1032,6 +1735,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1167,7 +1872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,6 +1907,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1416,27 +2124,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="28" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="4"/>
-    <col min="7" max="7" width="18.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="4"/>
+    <col min="7" max="7" width="18.44140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="12.5" style="4"/>
+    <col min="9" max="16384" width="12.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1">
@@ -1491,7 +2199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>60</v>
       </c>
@@ -1507,17 +2215,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:8" ht="13.2">
+      <c r="A4" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="13">
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.2">
       <c r="A5" s="3"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="13">
+    <row r="6" spans="1:8" ht="13.2">
       <c r="A6" s="7"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1526,7 +2244,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="13"/>
+    <row r="11" spans="1:8" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,21 +2252,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83B40B3-7085-4043-9CD0-1155B26A1D24}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="21"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="16" customFormat="1">
@@ -1597,15 +2315,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="14" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>21</v>
@@ -1618,7 +2336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +2359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +2378,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +2392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="14" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +2404,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -1700,13 +2418,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +2445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
@@ -1741,7 +2459,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>32</v>
@@ -1750,7 +2468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
@@ -1761,7 +2479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1784,7 +2502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1807,7 +2525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1825,6 +2543,177 @@
       </c>
       <c r="G14" s="20" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.2">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6">
+      <c r="A23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1834,19 +2723,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9364E0A7-4AF5-314C-BBE8-2E17390A4AA9}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
@@ -1898,7 +2787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
@@ -1916,7 +2805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>41</v>
       </c>
@@ -1934,8 +2823,45 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1015,10 +1015,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AlwaysFalse</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1090,6 +1086,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -1110,6 +1107,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -1631,6 +1629,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>_</t>
@@ -1651,6 +1650,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -2217,11 +2217,11 @@
     </row>
     <row r="4" spans="1:8" ht="13.2">
       <c r="A4" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2255,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -2323,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>21</v>
@@ -2459,7 +2459,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>32</v>
@@ -2547,30 +2547,30 @@
     </row>
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>63</v>
@@ -2581,16 +2581,16 @@
     </row>
     <row r="17" spans="1:7" ht="15.6">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>63</v>
@@ -2601,16 +2601,16 @@
     </row>
     <row r="18" spans="1:7" ht="15.6">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>63</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.6">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2630,7 +2630,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>49</v>
@@ -2638,16 +2638,16 @@
     </row>
     <row r="20" spans="1:7" ht="31.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>63</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="21" spans="1:7" ht="15.6">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>63</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="22" spans="1:7" ht="15.6">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>59</v>
@@ -2698,16 +2698,16 @@
     </row>
     <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23">
         <v>9</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>59</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>46</v>
@@ -2835,15 +2835,15 @@
         <v>47</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>46</v>
@@ -2853,10 +2853,10 @@
         <v>47</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1602,59 +1602,68 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>맞아! 세번째 시도만에 합격이야!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>튜토리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-430,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>축하드립니다! 
+이제 어엿한 마법소녀라고 할 수 있겠네요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>어떤…아! 마법소녀 통신 스쿨의 수료증!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아! 세번째 시도만에 합격이야!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>튜토리얼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시작</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2253,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -2653,7 +2662,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6">
@@ -2687,7 +2696,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>59</v>
@@ -2698,7 +2707,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -2707,13 +2716,33 @@
         <v>71</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="46.8">
+      <c r="A24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1602,6 +1602,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>어떤…아! 마법소녀 통신 스쿨의 수료증!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>맞아! 세번째 시도만에 합격이야!</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1651,19 +1655,6 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-430,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>축하드립니다! 
-이제 어엿한 마법소녀라고 할 수 있겠네요!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤…아! 마법소녀 통신 스쿨의 수료증!</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2262,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -2662,7 +2653,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6">
@@ -2696,7 +2687,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>59</v>
@@ -2707,7 +2698,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -2716,33 +2707,13 @@
         <v>71</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="46.8">
-      <c r="A24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1655,6 +1655,11 @@
       </rPr>
       <t>]</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>축하드립니다!
+이제 어엿한 마법소녀라고 할 수 있겠네요.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2253,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -2714,6 +2719,26 @@
       </c>
       <c r="G23" s="20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="46.8">
+      <c r="A24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -2261,7 +2261,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>

--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="684" windowWidth="24420" windowHeight="13896" activeTab="1"/>
+    <workbookView xWindow="4440" yWindow="684" windowWidth="24420" windowHeight="13896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CutsceneInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="Cutscene" sheetId="2" r:id="rId2"/>
-    <sheet name="CutsceneSelection" sheetId="3" r:id="rId3"/>
+    <sheet name="CutsceneSelection" sheetId="3" r:id="rId2"/>
+    <sheet name="Cutscene" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1660,6 +1660,111 @@
   <si>
     <t>축하드립니다!
 이제 어엿한 마법소녀라고 할 수 있겠네요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비한 재료 역학 과목은 꼼짝없이 과락일 줄 알았어..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법기계 제도의 기초나.. 그리고… 실용 수학도요…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>저런! 위험했네요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치만 리본&amp;레이스 연금술이나 마녀의 디저트 베이킹은 틀림없이 최고였을걸요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬으리라 믿어 의심치 않아요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서명은 여기다 하면 되죠?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜잔!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실히 받았습니다.
+귀여운 마법봉이네요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+헤헤... 아르바이트로 번 돈을 모조리 쏟아부었거든요…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowDialog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+덕분에 빈털터리예요..</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+그랬군요! 이제 정식으로 마법을 사용할 수 있으니 훌륭한 일자리를 구할 거예요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowDialog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+마법으로 돌아가는 공장을 차리면 일을 안해도 금을 갈퀴로 쓸어모은다죠? 경력을 쌓아서 마법산업청에 들어가면 명예와 권력을 한 손에 쥘 수도 있고요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+아아! 마법사의 재능이란 아름다워라!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+그래서 당신은 앞으로 무슨 일을 할 건가요, 마법소녀 새턴?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+아르바이트! 더 많은 아르바이트를 할 거예요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+...삐삑?!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+아차, 실수로 모국어로 말해버렸네요.
+그래요. 음. 아르바이트.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+그럼 서명은 잘 받았고... 여기, 당신 앞으로 온 편지들이에요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워요!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+그럼, 파트타임 마법소녀! 멋진 인생이 되길!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>날아갔다…</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1788,7 +1893,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1823,6 +1928,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1877,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,6 +2026,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2258,500 +2376,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1">
-      <c r="A1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="16" customFormat="1">
-      <c r="A2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6">
-      <c r="A4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6">
-      <c r="A6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6">
-      <c r="A7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6">
-      <c r="A8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6">
-      <c r="A9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6">
-      <c r="A10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6">
-      <c r="A11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.2">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.6">
-      <c r="A23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="46.8">
-      <c r="A24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2889,4 +2516,983 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="16" customFormat="1">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="16" customFormat="1">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
+      <c r="A7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
+      <c r="A9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
+      <c r="A10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6">
+      <c r="A23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="46.8">
+      <c r="A24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6">
+      <c r="A25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6">
+      <c r="A26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6">
+      <c r="A27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="46.8">
+      <c r="A28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6">
+      <c r="A29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6">
+      <c r="A30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6">
+      <c r="A33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.2">
+      <c r="A34" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="62.4">
+      <c r="A35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>21</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="46.8">
+      <c r="A36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="78">
+      <c r="A37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>23</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="124.8">
+      <c r="A38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="78">
+      <c r="A39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="78">
+      <c r="A40" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="62.4">
+      <c r="A41" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="46.8">
+      <c r="A42" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>28</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="34" customFormat="1" ht="78">
+      <c r="A43" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="34">
+        <v>29</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="46.8">
+      <c r="A44" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6">
+      <c r="A45" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="62.4">
+      <c r="A46" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>32</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.6">
+      <c r="A49" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/CutsceneData.xlsx
+++ b/excel/CutsceneData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4D952-942F-764D-AD02-0FE84F503761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B5A6D7-83B7-EC4B-AA5A-EE5841BE5F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="680" windowWidth="24700" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
   <si>
     <t>AlwaysTrue</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,18 +157,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HideRequirement</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HideRequirementValues</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AlwaysTrue</t>
-  </si>
-  <si>
-    <t>AlwaysFalse</t>
   </si>
   <si>
     <t>default_cutscene_selection</t>
@@ -1356,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,7 +1374,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1642,7 +1630,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
@@ -1668,7 +1656,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
@@ -1691,7 +1679,7 @@
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
@@ -1707,11 +1695,11 @@
     </row>
     <row r="4" spans="1:8" ht="13">
       <c r="A4" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1743,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -1754,13 +1742,11 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
@@ -1770,20 +1756,14 @@
       <c r="C1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>5</v>
+      <c r="D1" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
@@ -1793,53 +1773,41 @@
       <c r="C2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>62</v>
+      <c r="E4" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1883,7 @@
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1923,11 +1891,11 @@
       <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>48</v>
+      <c r="D3" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>26</v>
@@ -1938,7 +1906,7 @@
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1947,10 +1915,10 @@
         <v>19</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>26</v>
@@ -1961,7 +1929,7 @@
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1970,10 +1938,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>25</v>
@@ -1981,33 +1949,33 @@
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>25</v>
@@ -2015,19 +1983,19 @@
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>49</v>
+      <c r="E8" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>25</v>
@@ -2035,19 +2003,19 @@
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>25</v>
@@ -2055,7 +2023,7 @@
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2064,27 +2032,27 @@
         <v>30</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>25</v>
@@ -2092,19 +2060,19 @@
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>25</v>
@@ -2112,19 +2080,19 @@
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>27</v>
@@ -2132,19 +2100,19 @@
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>27</v>
@@ -2152,7 +2120,7 @@
     </row>
     <row r="15" spans="1:7" ht="48">
       <c r="A15" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -2160,11 +2128,11 @@
       <c r="C15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>49</v>
+      <c r="D15" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>25</v>
@@ -2172,7 +2140,7 @@
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -2181,10 +2149,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>27</v>
@@ -2192,7 +2160,7 @@
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="A17" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -2201,10 +2169,10 @@
         <v>19</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>26</v>
@@ -2215,7 +2183,7 @@
     </row>
     <row r="18" spans="1:7" ht="16">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -2223,11 +2191,11 @@
       <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>49</v>
+      <c r="D18" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>25</v>
@@ -2235,7 +2203,7 @@
     </row>
     <row r="19" spans="1:7" ht="48">
       <c r="A19" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -2243,11 +2211,11 @@
       <c r="C19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>76</v>
+      <c r="D19" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>27</v>
@@ -2255,7 +2223,7 @@
     </row>
     <row r="20" spans="1:7" ht="16">
       <c r="A20" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -2263,11 +2231,11 @@
       <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>49</v>
+      <c r="D20" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>25</v>
@@ -2275,7 +2243,7 @@
     </row>
     <row r="21" spans="1:7" ht="16">
       <c r="A21" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -2283,11 +2251,11 @@
       <c r="C21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>78</v>
+      <c r="D21" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>27</v>
@@ -2295,7 +2263,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -2304,12 +2272,12 @@
         <v>23</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -2321,7 +2289,7 @@
     </row>
     <row r="24" spans="1:7" ht="16">
       <c r="A24" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -2329,11 +2297,11 @@
       <c r="C24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>79</v>
+      <c r="D24" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>27</v>
@@ -2341,7 +2309,7 @@
     </row>
     <row r="25" spans="1:7" ht="32">
       <c r="A25" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2349,11 +2317,11 @@
       <c r="C25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>49</v>
+      <c r="D25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>25</v>
@@ -2361,7 +2329,7 @@
     </row>
     <row r="26" spans="1:7" ht="64">
       <c r="A26" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>21</v>
@@ -2369,11 +2337,11 @@
       <c r="C26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>81</v>
+      <c r="D26" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="19" t="s">
@@ -2382,19 +2350,19 @@
     </row>
     <row r="27" spans="1:7" ht="48">
       <c r="A27" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>22</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>26</v>
@@ -2405,7 +2373,7 @@
     </row>
     <row r="28" spans="1:7" ht="80">
       <c r="A28" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>23</v>
@@ -2413,11 +2381,11 @@
       <c r="C28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>49</v>
+      <c r="D28" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>25</v>
@@ -2425,19 +2393,19 @@
     </row>
     <row r="29" spans="1:7" ht="128">
       <c r="A29" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>24</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>26</v>
@@ -2448,19 +2416,19 @@
     </row>
     <row r="30" spans="1:7" ht="80">
       <c r="A30" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>25</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>26</v>
@@ -2471,7 +2439,7 @@
     </row>
     <row r="31" spans="1:7" ht="80">
       <c r="A31" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>26</v>
@@ -2479,11 +2447,11 @@
       <c r="C31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>49</v>
+      <c r="D31" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>25</v>
@@ -2491,7 +2459,7 @@
     </row>
     <row r="32" spans="1:7" ht="64">
       <c r="A32" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>27</v>
@@ -2499,11 +2467,11 @@
       <c r="C32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>89</v>
+      <c r="D32" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="19" t="s">
@@ -2512,7 +2480,7 @@
     </row>
     <row r="33" spans="1:7" ht="48">
       <c r="A33" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>28</v>
@@ -2520,39 +2488,39 @@
       <c r="C33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>49</v>
+      <c r="D33" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="33" customFormat="1" ht="80">
+    <row r="34" spans="1:7" s="32" customFormat="1" ht="80">
       <c r="A34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="33">
+        <v>50</v>
+      </c>
+      <c r="B34" s="32">
         <v>29</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="34" t="s">
+      <c r="D34" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="48">
       <c r="A35" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -2560,11 +2528,11 @@
       <c r="C35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>49</v>
+      <c r="D35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>25</v>
@@ -2572,7 +2540,7 @@
     </row>
     <row r="36" spans="1:7" ht="16">
       <c r="A36" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>31</v>
@@ -2580,11 +2548,11 @@
       <c r="C36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>93</v>
+      <c r="D36" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="19" t="s">
@@ -2593,7 +2561,7 @@
     </row>
     <row r="37" spans="1:7" ht="64">
       <c r="A37" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>32</v>
@@ -2601,11 +2569,11 @@
       <c r="C37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>49</v>
+      <c r="D37" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>25</v>
@@ -2613,7 +2581,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>33</v>
@@ -2622,12 +2590,12 @@
         <v>23</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>34</v>
@@ -2639,7 +2607,7 @@
     </row>
     <row r="40" spans="1:7" ht="16">
       <c r="A40" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>35</v>
@@ -2647,11 +2615,11 @@
       <c r="C40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="29" t="s">
-        <v>95</v>
+      <c r="D40" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="19" t="s">
